--- a/experiment/output/results/PACS/CORAL/DG/3.xlsx
+++ b/experiment/output/results/PACS/CORAL/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,470 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250206_00-40-30_resnet50_GENIE</t>
+          <t>250206_00-00-47_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82.34699999999999</v>
+        <v>83.461</v>
       </c>
       <c r="E2" t="n">
-        <v>81.45699999999999</v>
+        <v>82.252</v>
       </c>
       <c r="F2" t="n">
-        <v>81.489</v>
+        <v>79.039</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250206_02-44-56_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>83.96899999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80.75700000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>81.107</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250205_19-40-20_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>80.852</v>
-      </c>
-      <c r="E4" t="n">
-        <v>78.721</v>
-      </c>
-      <c r="F4" t="n">
-        <v>79.70699999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250205_20-26-29_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>80.94799999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80.94799999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80.94799999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250205_23-18-51_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>83.015</v>
-      </c>
-      <c r="E6" t="n">
-        <v>79.994</v>
-      </c>
-      <c r="F6" t="n">
-        <v>74.014</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250206_02-00-04_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>80.63</v>
-      </c>
-      <c r="E7" t="n">
-        <v>81.04300000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80.66200000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250205_21-17-38_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>81.298</v>
-      </c>
-      <c r="E8" t="n">
-        <v>80.248</v>
-      </c>
-      <c r="F8" t="n">
-        <v>77.417</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250206_00-00-47_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>83.461</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82.252</v>
-      </c>
-      <c r="F9" t="n">
-        <v>79.039</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250206_03-20-27_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>80.53400000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>79.771</v>
-      </c>
-      <c r="F10" t="n">
-        <v>78.212</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250206_03-55-08_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>81.04300000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>79.008</v>
-      </c>
-      <c r="F11" t="n">
-        <v>78.59399999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250205_22-34-20_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>80.43899999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>81.361</v>
-      </c>
-      <c r="F12" t="n">
-        <v>80.28</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>250205_21-54-34_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>83.111</v>
-      </c>
-      <c r="E13" t="n">
-        <v>78.944</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75.34999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>250206_04-34-35_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>80.121</v>
-      </c>
-      <c r="E14" t="n">
-        <v>74.93600000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>74.42700000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>250206_01-22-44_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>82.79300000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>81.997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>78.244</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>250131_03-19-08_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>83.461</v>
-      </c>
-      <c r="E16" t="n">
-        <v>82.252</v>
-      </c>
-      <c r="F16" t="n">
-        <v>79.039</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
